--- a/Online Restaurant.xlsx
+++ b/Online Restaurant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDF\AICT project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-08-Online-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF34FD2-9855-4367-9C8A-8C98A08C2584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B88A341-08DA-412B-A6D4-CC9EE8A95610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B2F451D5-C88D-4595-A4F4-A2744DFB768A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B2F451D5-C88D-4595-A4F4-A2744DFB768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -244,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -367,7 +370,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
@@ -378,44 +381,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,7 +429,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -500,7 +503,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1345,7 +1348,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1353,6 +1355,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1807,7 +1810,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1815,6 +1817,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1894,17 +1897,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Bonus</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" b="1" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1913,7 +1905,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Price</a:t>
+              <a:t>Profit Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3045,7 +3037,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3053,6 +3044,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:pattFill prst="dkDnDiag">
@@ -5295,9 +5287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5335,7 +5327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5441,7 +5433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5583,7 +5575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5597,41 +5589,41 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="0.1796875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="1">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>101</v>
       </c>
@@ -5666,7 +5658,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>102</v>
       </c>
@@ -5683,7 +5675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>103</v>
       </c>
@@ -5700,7 +5692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>104</v>
       </c>
@@ -5717,7 +5709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>105</v>
       </c>
@@ -5734,7 +5726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>106</v>
       </c>
@@ -5751,7 +5743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>107</v>
       </c>
@@ -5768,7 +5760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>108</v>
       </c>
@@ -5785,7 +5777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>109</v>
       </c>
@@ -5802,7 +5794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>110</v>
       </c>
@@ -5819,7 +5811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>111</v>
       </c>
@@ -5832,11 +5824,11 @@
       <c r="D15" s="11">
         <v>14</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>112</v>
       </c>
@@ -5853,7 +5845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>113</v>
       </c>
@@ -5870,7 +5862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>114</v>
       </c>
@@ -5887,7 +5879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>115</v>
       </c>
@@ -5904,7 +5896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>116</v>
       </c>
@@ -5921,7 +5913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>117</v>
       </c>
@@ -5938,7 +5930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>118</v>
       </c>
@@ -5955,7 +5947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>119</v>
       </c>
@@ -5972,7 +5964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>120</v>
       </c>
@@ -5989,7 +5981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>121</v>
       </c>
@@ -6006,7 +5998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>122</v>
       </c>
@@ -6023,7 +6015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>123</v>
       </c>
@@ -6040,7 +6032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>124</v>
       </c>
@@ -6079,41 +6071,41 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="1">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="1">
+      <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -6142,7 +6134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -6171,7 +6163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6179,7 +6171,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>'Raw Data'!B5</f>
         <v>Crispy Fried Chicken</v>
@@ -6216,7 +6208,7 @@
         <v>0.23076923076923075</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>'Raw Data'!B6</f>
         <v>Cheese Pizza</v>
@@ -6253,7 +6245,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>'Raw Data'!B7</f>
         <v>Mini Sliders With Fries</v>
@@ -6290,7 +6282,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>'Raw Data'!B8</f>
         <v>Grilled Club Sandwich</v>
@@ -6327,7 +6319,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>'Raw Data'!B9</f>
         <v>Fresh Spring Rolls</v>
@@ -6364,7 +6356,7 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>'Raw Data'!B10</f>
         <v>Samosas With Chutney</v>
@@ -6401,7 +6393,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>'Raw Data'!B11</f>
         <v>Fresh Fries With Dips</v>
@@ -6438,7 +6430,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>'Raw Data'!B12</f>
         <v>Fresh Garden Salad</v>
@@ -6475,7 +6467,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>'Raw Data'!B13</f>
         <v>Chicken Burger</v>
@@ -6512,7 +6504,7 @@
         <v>0.23529411764705879</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>'Raw Data'!B14</f>
         <v>Fruit &amp; Yogurt Bowl</v>
@@ -6549,7 +6541,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>'Raw Data'!B15</f>
         <v>Boiled Eggs With Greens</v>
@@ -6586,7 +6578,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>'Raw Data'!B16</f>
         <v>Mediterranean Platter</v>
@@ -6623,7 +6615,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>'Raw Data'!B17</f>
         <v>Pumpkin Soup</v>
@@ -6660,7 +6652,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>'Raw Data'!B18</f>
         <v>Vegetable Soup</v>
@@ -6697,7 +6689,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>'Raw Data'!B19</f>
         <v>Spinach Chicken</v>
@@ -6734,7 +6726,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>'Raw Data'!B20</f>
         <v>Pasta With Vegetables</v>
@@ -6771,7 +6763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>'Raw Data'!B21</f>
         <v>Dessert Plate</v>
@@ -6808,7 +6800,7 @@
         <v>0.30434782608695654</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>'Raw Data'!B22</f>
         <v>Mixed Chicken</v>
@@ -6845,7 +6837,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>'Raw Data'!B23</f>
         <v>Grilled Meat</v>
@@ -6882,7 +6874,7 @@
         <v>0.19230769230769235</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>'Raw Data'!B24</f>
         <v>Fruit Porridge</v>
@@ -6919,7 +6911,7 @@
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>'Raw Data'!B25</f>
         <v>Grilled Fish</v>
@@ -6956,7 +6948,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>'Raw Data'!B26</f>
         <v>Beef Steek</v>
@@ -6993,7 +6985,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>'Raw Data'!B27</f>
         <v>Chicken Wrap</v>
@@ -7030,7 +7022,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>'Raw Data'!B28</f>
         <v>Chocolate Cake</v>
@@ -7084,52 +7076,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0470B1-516E-495B-872C-B97E267760A6}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="0.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="0.1796875" customWidth="1"/>
     <col min="3" max="3" width="11" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="1">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -7146,7 +7138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -7158,7 +7150,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -7170,7 +7162,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -7182,7 +7174,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -7194,7 +7186,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -7206,7 +7198,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -7218,7 +7210,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
@@ -7230,7 +7222,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -7242,7 +7234,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
@@ -7254,7 +7246,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>63</v>
       </c>
@@ -7266,7 +7258,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -7278,7 +7270,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>65</v>
       </c>
